--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\Test\.USE THIS TO TEST\InputData\indst\RIFF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AF92DE-4663-4A6A-B145-58BD15DA2694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,20 +18,12 @@
     <sheet name="RIFF-agriculture" sheetId="13" r:id="rId9"/>
     <sheet name="RIFF-other-industries" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
   <si>
     <t>Source:</t>
   </si>
@@ -442,15 +428,12 @@
   </si>
   <si>
     <t>of site energy use. Therefore, a electrification potential of 0.1 is conservatively used</t>
-  </si>
-  <si>
-    <t>Oregon EPS maintains the U.S. version of this variable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,18 +480,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -525,7 +502,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -552,7 +529,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,13 +565,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -664,7 +634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,26 +667,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,23 +702,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -941,12 +877,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -960,12 +894,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="16"/>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
@@ -1031,7 +959,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1039,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1473,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3805,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4239,7 +4167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4673,7 +4601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5107,7 +5035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5541,7 +5469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5975,7 +5903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6409,7 +6337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
